--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.10568150947599</v>
+        <v>107.1056815066773</v>
       </c>
       <c r="C2">
-        <v>126.39087917585275</v>
+        <v>126.39087921465631</v>
       </c>
       <c r="D2">
-        <v>83.843085002857862</v>
+        <v>83.843085012374402</v>
       </c>
       <c r="E2">
-        <v>164.85584559325184</v>
+        <v>164.85584561249266</v>
       </c>
       <c r="F2">
-        <v>104.36962333090848</v>
+        <v>104.36962334523619</v>
       </c>
       <c r="G2">
-        <v>143.92058209114893</v>
+        <v>143.92058212623414</v>
       </c>
       <c r="H2">
-        <v>97.535497500969555</v>
+        <v>97.535497501053939</v>
       </c>
       <c r="I2">
-        <v>129.2863993442804</v>
+        <v>129.28639936965635</v>
       </c>
       <c r="J2">
-        <v>86.597223679205982</v>
+        <v>86.597223687591779</v>
       </c>
       <c r="K2">
-        <v>95.618009400595412</v>
+        <v>95.618009406940487</v>
       </c>
       <c r="L2">
-        <v>78.194038186242778</v>
+        <v>78.194038184961727</v>
       </c>
       <c r="N2">
-        <v>169.82593488967643</v>
+        <v>169.82593488081545</v>
       </c>
       <c r="O2">
-        <v>136.81760522913061</v>
+        <v>136.81760523438663</v>
       </c>
       <c r="P2">
-        <v>167.79958135605006</v>
+        <v>167.7995814145155</v>
       </c>
       <c r="Q2">
-        <v>155.25839627701993</v>
+        <v>155.25839631231148</v>
       </c>
       <c r="S2">
-        <v>133.89912080519343</v>
+        <v>133.89912080675782</v>
       </c>
       <c r="V2">
-        <v>137.00324633395169</v>
+        <v>137.00324637423458</v>
       </c>
       <c r="W2">
-        <v>192.43390675498574</v>
+        <v>192.43390679089342</v>
       </c>
       <c r="X2">
-        <v>128.75503311089113</v>
+        <v>128.75503312441532</v>
       </c>
       <c r="AA2">
-        <v>120.93196130236922</v>
+        <v>120.93196129401926</v>
       </c>
       <c r="AB2">
-        <v>120.2611227190643</v>
+        <v>120.26112272693493</v>
       </c>
       <c r="AC2">
-        <v>91.41778451847361</v>
+        <v>91.417784557614851</v>
       </c>
       <c r="AD2">
-        <v>139.90015890873491</v>
+        <v>139.90015894983242</v>
       </c>
       <c r="AE2">
-        <v>108.34711851963215</v>
+        <v>108.34711852090764</v>
       </c>
       <c r="AF2">
-        <v>133.06518732117402</v>
+        <v>133.06518733898099</v>
       </c>
       <c r="AG2">
-        <v>98.074911661130258</v>
+        <v>98.074911667418263</v>
       </c>
       <c r="AH2">
-        <v>122.09948670058908</v>
+        <v>122.09948674211827</v>
       </c>
       <c r="AI2">
-        <v>107.34962190440773</v>
+        <v>107.34962190422084</v>
       </c>
       <c r="AJ2">
-        <v>98.6019355940319</v>
+        <v>98.601935623591132</v>
       </c>
       <c r="AK2">
-        <v>71.337515928251406</v>
+        <v>71.337515938054821</v>
       </c>
       <c r="AL2">
-        <v>120.23122856971766</v>
+        <v>120.23122860530864</v>
       </c>
       <c r="AM2">
-        <v>170.77378439616029</v>
+        <v>170.77378438415633</v>
       </c>
       <c r="AN2">
-        <v>134.85450353176554</v>
+        <v>134.85450354383354</v>
       </c>
       <c r="AO2">
-        <v>164.79323447649145</v>
+        <v>164.79323450878789</v>
       </c>
       <c r="AQ2">
-        <v>178.18826856561921</v>
+        <v>178.18826857376496</v>
       </c>
       <c r="AR2">
-        <v>129.79617388988567</v>
+        <v>129.7961738905359</v>
       </c>
       <c r="AS2">
-        <v>138.00925727519217</v>
+        <v>138.00925730515593</v>
       </c>
       <c r="AU2">
-        <v>143.48532504805809</v>
+        <v>143.48532508095451</v>
       </c>
       <c r="AV2">
-        <v>177.43216790050036</v>
+        <v>177.43216793319294</v>
       </c>
       <c r="AW2">
-        <v>123.34053348746883</v>
+        <v>123.34053351375623</v>
       </c>
       <c r="AX2">
-        <v>150.3223016917178</v>
+        <v>150.32230169279899</v>
       </c>
       <c r="AY2">
-        <v>118.25192839735229</v>
+        <v>118.25192843376317</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.11798929938598</v>
+        <v>123.11798930586072</v>
       </c>
       <c r="C3">
-        <v>105.02238028195028</v>
+        <v>105.02238029066322</v>
       </c>
       <c r="E3">
-        <v>154.09469961076914</v>
+        <v>154.09469960163131</v>
       </c>
       <c r="F3">
-        <v>127.72886314989697</v>
+        <v>127.72886316040533</v>
       </c>
       <c r="G3">
-        <v>134.57697176941349</v>
+        <v>134.57697177436953</v>
       </c>
       <c r="H3">
-        <v>94.787533519765404</v>
+        <v>94.787533534522581</v>
       </c>
       <c r="J3">
-        <v>85.195321613851377</v>
+        <v>85.195321619754694</v>
       </c>
       <c r="K3">
-        <v>112.99908119005691</v>
+        <v>112.9990812056031</v>
       </c>
       <c r="L3">
-        <v>108.92219474762349</v>
+        <v>108.92219473051694</v>
       </c>
       <c r="M3">
-        <v>136.66309496033949</v>
+        <v>136.66313524871509</v>
       </c>
       <c r="N3">
-        <v>153.89250430915598</v>
+        <v>153.89250429911436</v>
       </c>
       <c r="P3">
-        <v>146.84662654010626</v>
+        <v>146.84662655062385</v>
       </c>
       <c r="Q3">
-        <v>147.46650686392519</v>
+        <v>147.46650688479068</v>
       </c>
       <c r="R3">
-        <v>176.56955640266511</v>
+        <v>176.56955643873493</v>
       </c>
       <c r="W3">
-        <v>124.39677950119145</v>
+        <v>124.39677957728274</v>
       </c>
       <c r="AA3">
-        <v>120.39416644288596</v>
+        <v>120.39416647702562</v>
       </c>
       <c r="AB3">
-        <v>104.17841998313516</v>
+        <v>104.17842000164696</v>
       </c>
       <c r="AC3">
-        <v>85.248707357869506</v>
+        <v>85.248707371191415</v>
       </c>
       <c r="AD3">
-        <v>151.17318221112814</v>
+        <v>151.17318220608772</v>
       </c>
       <c r="AE3">
-        <v>133.38569073849345</v>
+        <v>133.38569073885603</v>
       </c>
       <c r="AF3">
-        <v>129.21082384258034</v>
+        <v>129.21082383663958</v>
       </c>
       <c r="AG3">
-        <v>93.439854993009988</v>
+        <v>93.439855002515515</v>
       </c>
       <c r="AH3">
-        <v>139.46121273179611</v>
+        <v>139.46121275196447</v>
       </c>
       <c r="AI3">
-        <v>79.122704916549466</v>
+        <v>79.122704916574008</v>
       </c>
       <c r="AJ3">
-        <v>107.55594874966113</v>
+        <v>107.55594875729548</v>
       </c>
       <c r="AK3">
-        <v>82.43949057742384</v>
+        <v>82.439490567876845</v>
       </c>
       <c r="AL3">
-        <v>137.82192012588837</v>
+        <v>137.82192014863068</v>
       </c>
       <c r="AM3">
-        <v>158.79461685908834</v>
+        <v>158.79461689412258</v>
       </c>
       <c r="AN3">
-        <v>132.33390604539034</v>
+        <v>132.33390606648163</v>
       </c>
       <c r="AO3">
-        <v>194.57707215404065</v>
+        <v>194.57707218164236</v>
       </c>
       <c r="AP3">
-        <v>145.92558497316128</v>
+        <v>145.92558498661643</v>
       </c>
       <c r="AQ3">
-        <v>173.60081234862895</v>
+        <v>173.6008123800838</v>
       </c>
       <c r="AS3">
-        <v>138.11558051983837</v>
+        <v>138.11558054592186</v>
       </c>
       <c r="AT3">
-        <v>94.928969274411074</v>
+        <v>94.928969299823919</v>
       </c>
       <c r="AU3">
-        <v>162.71142173965217</v>
+        <v>162.71142176402128</v>
       </c>
       <c r="AV3">
-        <v>125.31157043385994</v>
+        <v>125.31157047167318</v>
       </c>
       <c r="AW3">
-        <v>129.68288999030477</v>
+        <v>129.68289001441497</v>
       </c>
       <c r="AX3">
-        <v>111.6144276837059</v>
+        <v>111.61442767546069</v>
       </c>
       <c r="AY3">
-        <v>131.07333476142907</v>
+        <v>131.07333475297307</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>107.1056815066773</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>126.39087921465631</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>83.843085012374402</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>164.85584561249266</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>104.36962334523619</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>143.92058212623414</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>97.535497501053939</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>129.28639936965635</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>86.597223687591779</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>95.618009406940487</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>78.194038184961727</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>169.82593488081545</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>136.81760523438663</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>167.7995814145155</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>155.25839631231148</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.89912080675782</v>
@@ -570,52 +465,55 @@
         <v>128.75503312441532</v>
       </c>
       <c r="AA2">
-        <v>120.93196129401926</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>120.26112272693493</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>91.417784557614851</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>139.90015894983242</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>108.34711852090764</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>133.06518733898099</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>98.074911667418263</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>122.09948674211827</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>107.34962190422084</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>98.601935623591132</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>71.337515938054821</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>120.23122860530864</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>170.77378438415633</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>134.85450354383354</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>164.79323450878789</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>178.18826857376496</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>129.7961738905359</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>123.11798930586072</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>105.02238029066322</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>154.09469960163131</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>127.72886316040533</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.57697177436953</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.787533534522581</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.195321619754694</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>112.9990812056031</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>108.92219473051694</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>136.66313524871509</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>153.89250429911436</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>146.84662655062385</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>147.46650688479068</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>176.56955643873493</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>124.39677957728274</v>
       </c>
       <c r="AA3">
-        <v>120.39416647702562</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>104.17842000164696</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>85.248707371191415</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>151.17318220608772</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>133.38569073885603</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>129.21082383663958</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>93.439855002515515</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>139.46121275196447</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>79.122704916574008</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>107.55594875729548</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>82.439490567876845</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>137.82192014863068</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>158.79461689412258</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>132.33390606648163</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>194.57707218164236</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>145.92558498661643</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.6008123800838</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>138.11558054592186</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.10568150947599</v>
-      </c>
-      <c r="C2">
-        <v>126.39087917585275</v>
+        <v>136.81760523438663</v>
       </c>
       <c r="D2">
-        <v>83.843085002857862</v>
+        <v>134.85450354383354</v>
       </c>
       <c r="E2">
-        <v>164.85584559325184</v>
+        <v>178.18826857376496</v>
       </c>
       <c r="F2">
         <v>104.36962333090848</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>123.11798929938598</v>
-      </c>
       <c r="C3">
-        <v>105.02238028195028</v>
+        <v>176.56955643873493</v>
+      </c>
+      <c r="D3">
+        <v>132.33390606648163</v>
       </c>
       <c r="E3">
-        <v>154.09469961076914</v>
+        <v>173.33385639635713</v>
       </c>
       <c r="F3">
         <v>127.72886314989697</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.10568150947599</v>
+        <v>169.82593488081545</v>
       </c>
       <c r="C2">
-        <v>126.39087917585275</v>
+        <v>136.81760523438663</v>
       </c>
       <c r="D2">
-        <v>83.843085002857862</v>
+        <v>170.77378438415633</v>
       </c>
       <c r="E2">
-        <v>164.85584559325184</v>
+        <v>134.85450354383354</v>
       </c>
       <c r="F2">
         <v>104.36962333090848</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.11798929938598</v>
-      </c>
-      <c r="C3">
-        <v>105.02238028195028</v>
+        <v>153.89250429911436</v>
+      </c>
+      <c r="D3">
+        <v>158.79461689412258</v>
       </c>
       <c r="E3">
-        <v>154.09469961076914</v>
+        <v>132.33390606648163</v>
       </c>
       <c r="F3">
         <v>127.72886314989697</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>107.1056815066773</v>
+      </c>
+      <c r="C2">
+        <v>126.39087921465631</v>
+      </c>
+      <c r="D2">
+        <v>83.843085012374402</v>
+      </c>
+      <c r="E2">
+        <v>164.85584561249266</v>
+      </c>
+      <c r="F2">
+        <v>104.36962334523619</v>
+      </c>
+      <c r="G2">
+        <v>143.92058212623414</v>
+      </c>
+      <c r="H2">
+        <v>97.535497501053939</v>
+      </c>
+      <c r="I2">
+        <v>129.28639936965635</v>
+      </c>
+      <c r="J2">
+        <v>86.597223687591779</v>
+      </c>
+      <c r="K2">
+        <v>95.618009406940487</v>
+      </c>
+      <c r="L2">
+        <v>78.194038184961727</v>
+      </c>
+      <c r="N2">
         <v>169.82593488081545</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>136.81760523438663</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>167.7995814145155</v>
+      </c>
+      <c r="Q2">
+        <v>155.25839631231148</v>
+      </c>
+      <c r="S2">
+        <v>133.89912080675782</v>
+      </c>
+      <c r="V2">
+        <v>137.00324637423458</v>
+      </c>
+      <c r="W2">
+        <v>192.43390679089342</v>
+      </c>
+      <c r="X2">
+        <v>128.75503312441532</v>
+      </c>
+      <c r="AA2">
+        <v>120.93196129401926</v>
+      </c>
+      <c r="AB2">
+        <v>120.26112272693493</v>
+      </c>
+      <c r="AC2">
+        <v>91.417784557614851</v>
+      </c>
+      <c r="AD2">
+        <v>139.90015894983242</v>
+      </c>
+      <c r="AE2">
+        <v>108.34711852090764</v>
+      </c>
+      <c r="AF2">
+        <v>133.06518733898099</v>
+      </c>
+      <c r="AG2">
+        <v>98.074911667418263</v>
+      </c>
+      <c r="AH2">
+        <v>122.09948674211827</v>
+      </c>
+      <c r="AI2">
+        <v>107.34962190422084</v>
+      </c>
+      <c r="AJ2">
+        <v>98.601935623591132</v>
+      </c>
+      <c r="AK2">
+        <v>71.337515938054821</v>
+      </c>
+      <c r="AL2">
+        <v>120.23122860530864</v>
+      </c>
+      <c r="AM2">
         <v>170.77378438415633</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>134.85450354383354</v>
       </c>
-      <c r="F2">
-        <v>104.36962333090848</v>
-      </c>
-      <c r="G2">
-        <v>143.92058209114893</v>
-      </c>
-      <c r="H2">
-        <v>97.535497500969555</v>
-      </c>
-      <c r="I2">
-        <v>129.2863993442804</v>
-      </c>
-      <c r="J2">
-        <v>86.597223679205982</v>
-      </c>
-      <c r="K2">
-        <v>95.618009400595412</v>
-      </c>
-      <c r="L2">
-        <v>78.194038186242778</v>
-      </c>
-      <c r="N2">
-        <v>169.82593488967643</v>
-      </c>
-      <c r="O2">
-        <v>136.81760522913061</v>
-      </c>
-      <c r="P2">
-        <v>167.79958135605006</v>
-      </c>
-      <c r="Q2">
-        <v>155.25839627701993</v>
-      </c>
-      <c r="S2">
-        <v>133.89912080519343</v>
-      </c>
-      <c r="V2">
-        <v>137.00324633395169</v>
-      </c>
-      <c r="W2">
-        <v>192.43390675498574</v>
-      </c>
-      <c r="X2">
-        <v>128.75503311089113</v>
-      </c>
-      <c r="AA2">
-        <v>120.93196130236922</v>
-      </c>
-      <c r="AB2">
-        <v>120.2611227190643</v>
-      </c>
-      <c r="AC2">
-        <v>91.41778451847361</v>
-      </c>
-      <c r="AD2">
-        <v>139.90015890873491</v>
-      </c>
-      <c r="AE2">
-        <v>108.34711851963215</v>
-      </c>
-      <c r="AF2">
-        <v>133.06518732117402</v>
-      </c>
-      <c r="AG2">
-        <v>98.074911661130258</v>
-      </c>
-      <c r="AH2">
-        <v>122.09948670058908</v>
-      </c>
-      <c r="AI2">
-        <v>107.34962190440773</v>
-      </c>
-      <c r="AJ2">
-        <v>98.6019355940319</v>
-      </c>
-      <c r="AK2">
-        <v>71.337515928251406</v>
-      </c>
-      <c r="AL2">
-        <v>120.23122856971766</v>
-      </c>
-      <c r="AM2">
-        <v>170.77378439616029</v>
-      </c>
-      <c r="AN2">
-        <v>134.85450353176554</v>
-      </c>
       <c r="AO2">
-        <v>164.79323447649145</v>
+        <v>164.79323450878789</v>
       </c>
       <c r="AQ2">
-        <v>178.18826856561921</v>
+        <v>178.18826857376496</v>
       </c>
       <c r="AR2">
-        <v>129.79617388988567</v>
+        <v>129.7961738905359</v>
       </c>
       <c r="AS2">
-        <v>138.00925727519217</v>
+        <v>138.00925730515593</v>
       </c>
       <c r="AU2">
-        <v>143.48532504805809</v>
+        <v>143.48532508095451</v>
       </c>
       <c r="AV2">
-        <v>177.43216790050036</v>
+        <v>177.43216793319294</v>
       </c>
       <c r="AW2">
-        <v>123.34053348746883</v>
+        <v>123.34053351375623</v>
       </c>
       <c r="AX2">
-        <v>150.3223016917178</v>
+        <v>150.32230169279899</v>
       </c>
       <c r="AY2">
-        <v>118.25192839735229</v>
+        <v>118.25192843376317</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>123.11798930586072</v>
+      </c>
+      <c r="C3">
+        <v>105.02238029066322</v>
+      </c>
+      <c r="E3">
+        <v>154.09469960163131</v>
+      </c>
+      <c r="F3">
+        <v>127.72886316040533</v>
+      </c>
+      <c r="G3">
+        <v>134.57697177436953</v>
+      </c>
+      <c r="H3">
+        <v>94.787533534522581</v>
+      </c>
+      <c r="J3">
+        <v>85.195321619754694</v>
+      </c>
+      <c r="K3">
+        <v>112.9990812056031</v>
+      </c>
+      <c r="L3">
+        <v>108.92219473051694</v>
+      </c>
+      <c r="M3">
+        <v>136.66313524871509</v>
+      </c>
+      <c r="N3">
         <v>153.89250429911436</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>146.84662655062385</v>
+      </c>
+      <c r="Q3">
+        <v>147.46650688479068</v>
+      </c>
+      <c r="R3">
+        <v>176.56955643873493</v>
+      </c>
+      <c r="W3">
+        <v>124.68458539628641</v>
+      </c>
+      <c r="AA3">
+        <v>120.39416647702562</v>
+      </c>
+      <c r="AB3">
+        <v>104.17842000164696</v>
+      </c>
+      <c r="AC3">
+        <v>85.248707371191415</v>
+      </c>
+      <c r="AD3">
+        <v>151.17318220608772</v>
+      </c>
+      <c r="AE3">
+        <v>133.38569073885603</v>
+      </c>
+      <c r="AF3">
+        <v>129.21082383663958</v>
+      </c>
+      <c r="AG3">
+        <v>93.439855002515515</v>
+      </c>
+      <c r="AH3">
+        <v>139.55737935373298</v>
+      </c>
+      <c r="AI3">
+        <v>79.122704916574008</v>
+      </c>
+      <c r="AJ3">
+        <v>107.55594875729548</v>
+      </c>
+      <c r="AK3">
+        <v>82.439490567876845</v>
+      </c>
+      <c r="AL3">
+        <v>137.82192014863068</v>
+      </c>
+      <c r="AM3">
         <v>158.79461689412258</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>132.33390606648163</v>
       </c>
-      <c r="F3">
-        <v>127.72886314989697</v>
-      </c>
-      <c r="G3">
-        <v>134.57697176941349</v>
-      </c>
-      <c r="H3">
-        <v>94.787533519765404</v>
-      </c>
-      <c r="J3">
-        <v>85.195321613851377</v>
-      </c>
-      <c r="K3">
-        <v>112.99908119005691</v>
-      </c>
-      <c r="L3">
-        <v>108.92219474762349</v>
-      </c>
-      <c r="M3">
-        <v>136.66309496033949</v>
-      </c>
-      <c r="N3">
-        <v>153.89250430915598</v>
-      </c>
-      <c r="P3">
-        <v>146.84662654010626</v>
-      </c>
-      <c r="Q3">
-        <v>147.46650686392519</v>
-      </c>
-      <c r="R3">
-        <v>176.56955640266511</v>
-      </c>
-      <c r="W3">
-        <v>124.68458532009259</v>
-      </c>
-      <c r="AA3">
-        <v>120.39416644288596</v>
-      </c>
-      <c r="AB3">
-        <v>104.17841998313516</v>
-      </c>
-      <c r="AC3">
-        <v>85.248707357869506</v>
-      </c>
-      <c r="AD3">
-        <v>151.17318221112814</v>
-      </c>
-      <c r="AE3">
-        <v>133.38569073849345</v>
-      </c>
-      <c r="AF3">
-        <v>129.21082384258034</v>
-      </c>
-      <c r="AG3">
-        <v>93.439854993009988</v>
-      </c>
-      <c r="AH3">
-        <v>139.5573793451463</v>
-      </c>
-      <c r="AI3">
-        <v>79.122704916549466</v>
-      </c>
-      <c r="AJ3">
-        <v>107.55594874966113</v>
-      </c>
-      <c r="AK3">
-        <v>82.43949057742384</v>
-      </c>
-      <c r="AL3">
-        <v>137.82192012588837</v>
-      </c>
-      <c r="AM3">
-        <v>158.79461685908834</v>
-      </c>
-      <c r="AN3">
-        <v>132.33390604539034</v>
-      </c>
       <c r="AO3">
-        <v>194.57707215404065</v>
+        <v>194.57707218164236</v>
       </c>
       <c r="AP3">
-        <v>145.92558497316128</v>
+        <v>145.92558498661643</v>
       </c>
       <c r="AQ3">
-        <v>173.33385635272441</v>
+        <v>173.33385639635713</v>
       </c>
       <c r="AS3">
-        <v>138.11558051983837</v>
+        <v>138.11558054592186</v>
       </c>
       <c r="AT3">
-        <v>94.928969274411074</v>
+        <v>94.928969299823919</v>
       </c>
       <c r="AU3">
-        <v>162.71142173965217</v>
+        <v>162.71142176402128</v>
       </c>
       <c r="AV3">
-        <v>125.31157043385994</v>
+        <v>125.31157047167318</v>
       </c>
       <c r="AW3">
-        <v>129.68288999030477</v>
+        <v>129.68289001441497</v>
       </c>
       <c r="AX3">
-        <v>111.6144276837059</v>
+        <v>111.61442767546069</v>
       </c>
       <c r="AY3">
-        <v>131.07333476142907</v>
+        <v>131.07333475297307</v>
       </c>
     </row>
   </sheetData>
